--- a/data/trans_orig/P33B2_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>71990</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>56741</v>
+        <v>57748</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>86504</v>
+        <v>90390</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1443448657155563</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.113768587000933</v>
+        <v>0.1157875337912066</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1734454739474705</v>
+        <v>0.1812375776744335</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>184</v>
@@ -762,19 +762,19 @@
         <v>122261</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>105737</v>
+        <v>107081</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>138732</v>
+        <v>142308</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1960625514435671</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1695649663642391</v>
+        <v>0.1717202479073678</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2224766294683895</v>
+        <v>0.228211851521983</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>262</v>
@@ -783,19 +783,19 @@
         <v>194251</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>172742</v>
+        <v>171258</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>221114</v>
+        <v>219705</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1730801102183002</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1539147960795639</v>
+        <v>0.1525926164338484</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1970150949769003</v>
+        <v>0.1957598550030084</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>52207</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>40064</v>
+        <v>40646</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>66023</v>
+        <v>67173</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1046772328305122</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08032976823992184</v>
+        <v>0.08149745098225801</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1323795393621533</v>
+        <v>0.134685398589436</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>151</v>
@@ -833,19 +833,19 @@
         <v>96376</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>81338</v>
+        <v>82863</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>111537</v>
+        <v>113552</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1545528013561732</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1304369556064828</v>
+        <v>0.1328829462882426</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1788657833348349</v>
+        <v>0.1820973990261554</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>211</v>
@@ -854,19 +854,19 @@
         <v>148583</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>129845</v>
+        <v>129338</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>170231</v>
+        <v>171086</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1323889650189075</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1156937922013893</v>
+        <v>0.1152418542361564</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1516774047791624</v>
+        <v>0.1524396933198292</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>81618</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>65818</v>
+        <v>64940</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>102372</v>
+        <v>99311</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1636493025225642</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1319694266941181</v>
+        <v>0.1302088650308271</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2052624371079256</v>
+        <v>0.1991244210600621</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>199</v>
@@ -904,19 +904,19 @@
         <v>131996</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>115495</v>
+        <v>114157</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>150866</v>
+        <v>150038</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2116742107555991</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1852132591794077</v>
+        <v>0.1830665168342263</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2419347040176255</v>
+        <v>0.2406076047644821</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>276</v>
@@ -925,19 +925,19 @@
         <v>213614</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>188535</v>
+        <v>191150</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>239961</v>
+        <v>239486</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1903327757072638</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1679872071407711</v>
+        <v>0.1703171705741219</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2138082988900555</v>
+        <v>0.2133845940382752</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>292924</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>271104</v>
+        <v>267021</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>314672</v>
+        <v>315968</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5873285989313674</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5435784446549113</v>
+        <v>0.5353924346062009</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6309362185454533</v>
+        <v>0.6335328517718956</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>327</v>
@@ -975,19 +975,19 @@
         <v>272947</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>251015</v>
+        <v>247957</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>297552</v>
+        <v>298135</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4377104364446605</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4025387202661732</v>
+        <v>0.3976338871279056</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4771667864655433</v>
+        <v>0.4781023407717153</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>567</v>
@@ -996,19 +996,19 @@
         <v>565872</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>533674</v>
+        <v>532425</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>599457</v>
+        <v>598528</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5041981490555286</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4755095253556487</v>
+        <v>0.4743963944018457</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5341231235599943</v>
+        <v>0.5332951693308332</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>73309</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>58760</v>
+        <v>57703</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>90844</v>
+        <v>91071</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.07635239222002201</v>
+        <v>0.07635239222002199</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0611999648879681</v>
+        <v>0.06009854039196513</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09461617100031275</v>
+        <v>0.0948521571983971</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>208</v>
@@ -1121,19 +1121,19 @@
         <v>130586</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>114418</v>
+        <v>113779</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>148754</v>
+        <v>149480</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1170285367575187</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1025385281585018</v>
+        <v>0.1019666611605885</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1333099835583091</v>
+        <v>0.1339604688025292</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>296</v>
@@ -1142,19 +1142,19 @@
         <v>203895</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>182464</v>
+        <v>181549</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>229331</v>
+        <v>228698</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.09821595397455048</v>
+        <v>0.09821595397455045</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08789281301998053</v>
+        <v>0.08745202291225991</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1104687047101546</v>
+        <v>0.1101637232074853</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>71413</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>57092</v>
+        <v>57948</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>87449</v>
+        <v>89698</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.07437839098128306</v>
+        <v>0.07437839098128307</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05946273743770367</v>
+        <v>0.06035422776102491</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09107979814181212</v>
+        <v>0.09342245484194187</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>250</v>
@@ -1192,19 +1192,19 @@
         <v>153145</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>137036</v>
+        <v>136229</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>172949</v>
+        <v>173650</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.137245558189223</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1228091497007164</v>
+        <v>0.1220857237557618</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1549927682873216</v>
+        <v>0.1556214603685311</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>334</v>
@@ -1213,19 +1213,19 @@
         <v>224559</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>201259</v>
+        <v>202934</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>250281</v>
+        <v>249872</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.108169700561177</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09694621339032666</v>
+        <v>0.0977531330110069</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1205602888477383</v>
+        <v>0.1203632632815421</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>166409</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>142445</v>
+        <v>141068</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>192238</v>
+        <v>191405</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1733182859904271</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1483589931044289</v>
+        <v>0.1469247992290788</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2002191727031607</v>
+        <v>0.1993513933028265</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>383</v>
@@ -1263,19 +1263,19 @@
         <v>244048</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>221609</v>
+        <v>221332</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>268994</v>
+        <v>267718</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.218710524130968</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.198601483519575</v>
+        <v>0.1983531497548725</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2410669191640591</v>
+        <v>0.2399233956479235</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>561</v>
@@ -1284,19 +1284,19 @@
         <v>410457</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>378201</v>
+        <v>378636</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>443967</v>
+        <v>442739</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1977167636004945</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1821792070990875</v>
+        <v>0.1823883524013238</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2138583091963667</v>
+        <v>0.2132667286562812</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>649005</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>615714</v>
+        <v>623171</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>678729</v>
+        <v>684452</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6759509308082678</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6412768358670462</v>
+        <v>0.6490438209976983</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7069086185330762</v>
+        <v>0.7128689345686352</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>766</v>
@@ -1334,19 +1334,19 @@
         <v>588070</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>559591</v>
+        <v>557730</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>618989</v>
+        <v>617481</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5270153809222902</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5014936275294523</v>
+        <v>0.4998254674939254</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5547246845710426</v>
+        <v>0.5533732812454069</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1326</v>
@@ -1355,19 +1355,19 @@
         <v>1237075</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1189549</v>
+        <v>1189288</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1278344</v>
+        <v>1278053</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.5958975818637781</v>
+        <v>0.5958975818637779</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5730044765055622</v>
+        <v>0.5728785893172427</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.615776951618295</v>
+        <v>0.615636550012381</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>50032</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37386</v>
+        <v>37781</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>65949</v>
+        <v>66750</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.04780972416154949</v>
+        <v>0.04780972416154948</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03572535939458907</v>
+        <v>0.036102968996521</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06301960376814511</v>
+        <v>0.06378514002658923</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>96</v>
@@ -1480,19 +1480,19 @@
         <v>67310</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>54848</v>
+        <v>55374</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>83109</v>
+        <v>80571</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.06424880920766818</v>
+        <v>0.06424880920766819</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05235328703932489</v>
+        <v>0.05285584878270998</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07932968591004737</v>
+        <v>0.07690688499956089</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>156</v>
@@ -1501,19 +1501,19 @@
         <v>117342</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>98912</v>
+        <v>98461</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>138196</v>
+        <v>138270</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.05603382900237072</v>
+        <v>0.05603382900237073</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04723316052477797</v>
+        <v>0.04701796121540634</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06599231273219494</v>
+        <v>0.06602787795498967</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>74628</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>60438</v>
+        <v>59840</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>91445</v>
+        <v>91592</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.07131362839111519</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05775401533978695</v>
+        <v>0.05718261553457863</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08738352789475248</v>
+        <v>0.08752391450734409</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>193</v>
@@ -1551,19 +1551,19 @@
         <v>121239</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>105043</v>
+        <v>104157</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>138188</v>
+        <v>138140</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1157258611825379</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1002664917929291</v>
+        <v>0.09942037963187783</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1319038736866842</v>
+        <v>0.1318582790345612</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>279</v>
@@ -1572,19 +1572,19 @@
         <v>195867</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>171083</v>
+        <v>171230</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>219951</v>
+        <v>221381</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.09353207045567863</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.08169670611498864</v>
+        <v>0.08176705518561422</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1050328122249063</v>
+        <v>0.10571562893569</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>162323</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>140899</v>
+        <v>138591</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>188943</v>
+        <v>186599</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.155113421765243</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1346408968139814</v>
+        <v>0.13243599797557</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1805509167860554</v>
+        <v>0.1783112975352927</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>378</v>
@@ -1622,19 +1622,19 @@
         <v>227971</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>206275</v>
+        <v>205345</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>250479</v>
+        <v>254816</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2176040088883579</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1968942890658411</v>
+        <v>0.1960066433909716</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2390882852692192</v>
+        <v>0.2432277486571773</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>565</v>
@@ -1643,19 +1643,19 @@
         <v>390294</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>359023</v>
+        <v>356602</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>425972</v>
+        <v>422882</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1863760582576742</v>
+        <v>0.1863760582576743</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1714430999678667</v>
+        <v>0.1702871093661792</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2034130948975529</v>
+        <v>0.201937936602567</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>759496</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>728013</v>
+        <v>728797</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>785938</v>
+        <v>788439</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7257632256820924</v>
+        <v>0.7257632256820923</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6956789408691585</v>
+        <v>0.6964281880475078</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.751030794513198</v>
+        <v>0.7534206846365135</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>849</v>
@@ -1693,19 +1693,19 @@
         <v>631122</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>602421</v>
+        <v>602938</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>657792</v>
+        <v>658572</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6024213207214359</v>
+        <v>0.6024213207214361</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5750255921802061</v>
+        <v>0.5755192342095398</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6278790636983742</v>
+        <v>0.6286230172702909</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1545</v>
@@ -1714,19 +1714,19 @@
         <v>1390618</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1348708</v>
+        <v>1349004</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1431372</v>
+        <v>1432167</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6640580422842763</v>
+        <v>0.6640580422842765</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6440449061800779</v>
+        <v>0.644186267148955</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6835191566218646</v>
+        <v>0.6838990439535129</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>32272</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21872</v>
+        <v>21726</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46220</v>
+        <v>46036</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03306781948658519</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02241157775748612</v>
+        <v>0.02226160013742819</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04735950543101738</v>
+        <v>0.0471718717385561</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>78</v>
@@ -1839,19 +1839,19 @@
         <v>54788</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>43029</v>
+        <v>43262</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>68559</v>
+        <v>69788</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06032200908490288</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04737567492516408</v>
+        <v>0.04763192716213459</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07548428861177457</v>
+        <v>0.07683822010960671</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>109</v>
@@ -1860,19 +1860,19 @@
         <v>87059</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>70056</v>
+        <v>69191</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>105968</v>
+        <v>105197</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.04620543824060595</v>
+        <v>0.04620543824060594</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03718118839353139</v>
+        <v>0.03672187406987964</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05624108137890416</v>
+        <v>0.05583177269547471</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>63411</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>48584</v>
+        <v>48037</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>84927</v>
+        <v>84337</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06497495118711315</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04978196035997887</v>
+        <v>0.04922211060348704</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08702169956035932</v>
+        <v>0.08641698202642896</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>141</v>
@@ -1910,19 +1910,19 @@
         <v>89787</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>76333</v>
+        <v>77330</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>105635</v>
+        <v>104753</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09885708590289835</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08404359732092054</v>
+        <v>0.08514134229276997</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1163061743346861</v>
+        <v>0.1153352938152446</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>203</v>
@@ -1931,19 +1931,19 @@
         <v>153198</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>134239</v>
+        <v>130711</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>180759</v>
+        <v>177304</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.08130750684291714</v>
+        <v>0.08130750684291711</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07124551268943921</v>
+        <v>0.06937267140967089</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09593515847827935</v>
+        <v>0.0941014291229874</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>246326</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>220367</v>
+        <v>220432</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>272051</v>
+        <v>274236</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2524010923278758</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.225802318882117</v>
+        <v>0.2258684115588861</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2787610206731309</v>
+        <v>0.2809999813236241</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>466</v>
@@ -1981,19 +1981,19 @@
         <v>261999</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>240298</v>
+        <v>239344</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>286604</v>
+        <v>287067</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2884650249900247</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2645719564315851</v>
+        <v>0.2635218342696339</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3155554661789655</v>
+        <v>0.316066158407021</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>759</v>
@@ -2002,19 +2002,19 @@
         <v>508324</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>474030</v>
+        <v>470521</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>544408</v>
+        <v>542192</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.2697853626022426</v>
+        <v>0.2697853626022425</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2515844082087013</v>
+        <v>0.2497217409437051</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2889361660397967</v>
+        <v>0.2877604105382348</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>633921</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>603036</v>
+        <v>603700</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>662816</v>
+        <v>663716</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.649556136998426</v>
+        <v>0.6495561369984258</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6179092172686641</v>
+        <v>0.6185896719305388</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.679163693758743</v>
+        <v>0.6800859834379436</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>635</v>
@@ -2052,19 +2052,19 @@
         <v>501678</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>473143</v>
+        <v>475465</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>526159</v>
+        <v>527537</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5523558800221741</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5209386525759322</v>
+        <v>0.5234949853874672</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5793104852666812</v>
+        <v>0.5808267978360437</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1196</v>
@@ -2073,19 +2073,19 @@
         <v>1135598</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1094775</v>
+        <v>1091779</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1177405</v>
+        <v>1177413</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6027016923142343</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5810351030959533</v>
+        <v>0.5794454061107818</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6248898533750338</v>
+        <v>0.62489394735064</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>227603</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>198707</v>
+        <v>200463</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>258080</v>
+        <v>258566</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06537901047910141</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05707866866473396</v>
+        <v>0.05758297108386232</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07413368712206303</v>
+        <v>0.07427322162639424</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>566</v>
@@ -2198,19 +2198,19 @@
         <v>374944</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>346107</v>
+        <v>344591</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>407407</v>
+        <v>405431</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1014645540106161</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09366084993646417</v>
+        <v>0.09325062598456364</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1102493425230976</v>
+        <v>0.1097146077521497</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>823</v>
@@ -2219,19 +2219,19 @@
         <v>602547</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>561496</v>
+        <v>558455</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>646807</v>
+        <v>648854</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.083959895789054</v>
+        <v>0.08395989578905402</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07823974945548795</v>
+        <v>0.07781609747493491</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.090127154957388</v>
+        <v>0.09041231082271478</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>261659</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>232140</v>
+        <v>231954</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>296367</v>
+        <v>294645</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.07516170054730754</v>
+        <v>0.07516170054730756</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06668222299469428</v>
+        <v>0.06662887531067412</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08513161742565489</v>
+        <v>0.08463700089082578</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>735</v>
@@ -2269,19 +2269,19 @@
         <v>460548</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>427393</v>
+        <v>427186</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>493010</v>
+        <v>494743</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.124629923863049</v>
+        <v>0.1246299238630491</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1156577798966078</v>
+        <v>0.1156018196120976</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1334145803369016</v>
+        <v>0.1338834953075692</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1027</v>
@@ -2290,19 +2290,19 @@
         <v>722207</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>679409</v>
+        <v>677673</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>772734</v>
+        <v>767166</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1006334904654552</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09466990625806793</v>
+        <v>0.09442810506129741</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1076739621110073</v>
+        <v>0.1068981595492293</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>656676</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>612380</v>
+        <v>609251</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>710679</v>
+        <v>702636</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1886304219469115</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1759064441493533</v>
+        <v>0.1750075512529884</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.204142641455069</v>
+        <v>0.201832296010391</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1426</v>
@@ -2340,19 +2340,19 @@
         <v>866013</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>822927</v>
+        <v>821006</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>911069</v>
+        <v>912293</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2343539880739222</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2226943820649853</v>
+        <v>0.2221745092600013</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2465467048062766</v>
+        <v>0.2468779308408634</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2161</v>
@@ -2361,19 +2361,19 @@
         <v>1522690</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1455712</v>
+        <v>1458033</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1581363</v>
+        <v>1586050</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2121740423284653</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2028413297364071</v>
+        <v>0.2031647399404108</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2203497335832737</v>
+        <v>0.2210027323740986</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>2335346</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2271208</v>
+        <v>2275455</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2393085</v>
+        <v>2391440</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6708288670266797</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6524053596693107</v>
+        <v>0.6536251199442999</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6874145873589426</v>
+        <v>0.6869418812524301</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2577</v>
@@ -2411,19 +2411,19 @@
         <v>1993817</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1940996</v>
+        <v>1940776</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2047658</v>
+        <v>2051034</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5395515340524126</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5252574815733303</v>
+        <v>0.525198172193548</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5541215459267627</v>
+        <v>0.5550351526174364</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4634</v>
@@ -2432,19 +2432,19 @@
         <v>4329162</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4251676</v>
+        <v>4253289</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4412413</v>
+        <v>4410050</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.6032325714170252</v>
+        <v>0.6032325714170255</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5924354130934033</v>
+        <v>0.5926602566612406</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.614832900825604</v>
+        <v>0.6145035640783741</v>
       </c>
     </row>
     <row r="28">
